--- a/Data_frame/balancos_definitivos/CTNM4.xlsx
+++ b/Data_frame/balancos_definitivos/CTNM4.xlsx
@@ -16911,36 +16911,38 @@
         <v>944475.008</v>
       </c>
       <c r="AI57" t="n">
+        <v>896254.976</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>926558.0159999999</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AK57" t="n">
         <v>875697.9840000001</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="AL57" t="n">
         <v>853428.096</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AM57" t="n">
         <v>778790.976</v>
       </c>
-      <c r="AM57" t="n">
+      <c r="AN57" t="n">
         <v>800022.976</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="AO57" t="n">
         <v>787985.024</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="AP57" t="n">
         <v>733516.928</v>
       </c>
-      <c r="AP57" t="n">
+      <c r="AQ57" t="n">
         <v>785800</v>
       </c>
-      <c r="AQ57" t="n">
+      <c r="AR57" t="n">
         <v>801617.9840000001</v>
       </c>
-      <c r="AR57" t="n">
+      <c r="AS57" t="n">
         <v>792556.992</v>
       </c>
-      <c r="AS57" t="inlineStr"/>
       <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
@@ -17098,36 +17100,38 @@
         <v>-147228.96</v>
       </c>
       <c r="AI58" t="n">
+        <v>-99538</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>-125020</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AK58" t="n">
         <v>-100709</v>
       </c>
-      <c r="AK58" t="n">
+      <c r="AL58" t="n">
         <v>-67789</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>-89228</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AN58" t="n">
         <v>-105449</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>-115103</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>-124567.008</v>
       </c>
-      <c r="AP58" t="n">
+      <c r="AQ58" t="n">
         <v>-120277</v>
       </c>
-      <c r="AQ58" t="n">
+      <c r="AR58" t="n">
         <v>-123976</v>
       </c>
-      <c r="AR58" t="n">
+      <c r="AS58" t="n">
         <v>-132729</v>
       </c>
-      <c r="AS58" t="inlineStr"/>
       <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
@@ -17285,40 +17289,40 @@
         <v>797245.952</v>
       </c>
       <c r="AI59" t="n">
+        <v>796716.992</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>801537.9840000001</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>774988.992</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AL59" t="n">
         <v>785639.1040000001</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>689563.008</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AN59" t="n">
         <v>694574.0159999999</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>672881.9840000001</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>608949.888</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>665523.008</v>
       </c>
-      <c r="AQ59" t="n">
+      <c r="AR59" t="n">
         <v>677641.9840000001</v>
       </c>
-      <c r="AR59" t="n">
+      <c r="AS59" t="n">
         <v>659827.968</v>
       </c>
-      <c r="AS59" t="n">
+      <c r="AT59" t="n">
         <v>612118.976</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>547422.976</v>
       </c>
       <c r="AU59" t="n">
         <v>547422.976</v>
@@ -17447,22 +17451,22 @@
         <v>534416.992</v>
       </c>
       <c r="CK59" t="n">
+        <v>587523.968</v>
+      </c>
+      <c r="CL59" t="n">
         <v>522938.976</v>
       </c>
-      <c r="CL59" t="n">
+      <c r="CM59" t="n">
         <v>489883.008</v>
       </c>
-      <c r="CM59" t="n">
+      <c r="CN59" t="n">
         <v>383544</v>
       </c>
-      <c r="CN59" t="n">
+      <c r="CO59" t="n">
         <v>385096.992</v>
       </c>
-      <c r="CO59" t="n">
+      <c r="CP59" t="n">
         <v>262433.056</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>171091.008</v>
       </c>
       <c r="CQ59" t="n">
         <v>171091.008</v>
@@ -17574,40 +17578,40 @@
         <v>-752752</v>
       </c>
       <c r="AI60" t="n">
+        <v>-683809.024</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>-703288</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AK60" t="n">
         <v>-664425.9840000001</v>
       </c>
-      <c r="AK60" t="n">
+      <c r="AL60" t="n">
         <v>-677785.92</v>
       </c>
-      <c r="AL60" t="n">
+      <c r="AM60" t="n">
         <v>-587417.9840000001</v>
       </c>
-      <c r="AM60" t="n">
+      <c r="AN60" t="n">
         <v>-599110.0159999999</v>
       </c>
-      <c r="AN60" t="n">
+      <c r="AO60" t="n">
         <v>-568414.0159999999</v>
       </c>
-      <c r="AO60" t="n">
+      <c r="AP60" t="n">
         <v>-493458.88</v>
       </c>
-      <c r="AP60" t="n">
+      <c r="AQ60" t="n">
         <v>-544849.024</v>
       </c>
-      <c r="AQ60" t="n">
+      <c r="AR60" t="n">
         <v>-564169.9840000001</v>
       </c>
-      <c r="AR60" t="n">
+      <c r="AS60" t="n">
         <v>-540659.968</v>
       </c>
-      <c r="AS60" t="n">
+      <c r="AT60" t="n">
         <v>-498235.008</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-417995.008</v>
       </c>
       <c r="AU60" t="n">
         <v>-417995.008</v>
@@ -17736,22 +17740,22 @@
         <v>-372692.992</v>
       </c>
       <c r="CK60" t="n">
+        <v>-393784</v>
+      </c>
+      <c r="CL60" t="n">
         <v>-355525.056</v>
       </c>
-      <c r="CL60" t="n">
+      <c r="CM60" t="n">
         <v>-347992.992</v>
       </c>
-      <c r="CM60" t="n">
+      <c r="CN60" t="n">
         <v>-320486.016</v>
       </c>
-      <c r="CN60" t="n">
+      <c r="CO60" t="n">
         <v>-357879.008</v>
       </c>
-      <c r="CO60" t="n">
+      <c r="CP60" t="n">
         <v>-296209.024</v>
-      </c>
-      <c r="CP60" t="n">
-        <v>-202760</v>
       </c>
       <c r="CQ60" t="n">
         <v>-202760</v>
@@ -17863,40 +17867,40 @@
         <v>44493.984</v>
       </c>
       <c r="AI61" t="n">
+        <v>112908</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>98250</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>110563</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AL61" t="n">
         <v>107853.016</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>102145</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AN61" t="n">
         <v>95464</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>104468</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>115491</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>120674</v>
       </c>
-      <c r="AQ61" t="n">
+      <c r="AR61" t="n">
         <v>113472</v>
       </c>
-      <c r="AR61" t="n">
+      <c r="AS61" t="n">
         <v>119168</v>
       </c>
-      <c r="AS61" t="n">
+      <c r="AT61" t="n">
         <v>113884.016</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>129428</v>
       </c>
       <c r="AU61" t="n">
         <v>129428</v>
@@ -18025,22 +18029,22 @@
         <v>161724</v>
       </c>
       <c r="CK61" t="n">
+        <v>193740</v>
+      </c>
+      <c r="CL61" t="n">
         <v>167414.016</v>
       </c>
-      <c r="CL61" t="n">
+      <c r="CM61" t="n">
         <v>141890</v>
       </c>
-      <c r="CM61" t="n">
+      <c r="CN61" t="n">
         <v>63058</v>
       </c>
-      <c r="CN61" t="n">
+      <c r="CO61" t="n">
         <v>27218</v>
       </c>
-      <c r="CO61" t="n">
+      <c r="CP61" t="n">
         <v>-33776</v>
-      </c>
-      <c r="CP61" t="n">
-        <v>-31669</v>
       </c>
       <c r="CQ61" t="n">
         <v>-31669</v>
@@ -18152,40 +18156,40 @@
         <v>-49115.992</v>
       </c>
       <c r="AI62" t="n">
+        <v>-40884</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>-42328</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AK62" t="n">
         <v>-45375</v>
       </c>
-      <c r="AK62" t="n">
+      <c r="AL62" t="n">
         <v>-63515</v>
       </c>
-      <c r="AL62" t="n">
+      <c r="AM62" t="n">
         <v>-46585</v>
       </c>
-      <c r="AM62" t="n">
+      <c r="AN62" t="n">
         <v>-52828</v>
       </c>
-      <c r="AN62" t="n">
+      <c r="AO62" t="n">
         <v>-58192</v>
       </c>
-      <c r="AO62" t="n">
+      <c r="AP62" t="n">
         <v>-58423</v>
       </c>
-      <c r="AP62" t="n">
+      <c r="AQ62" t="n">
         <v>-58630</v>
       </c>
-      <c r="AQ62" t="n">
+      <c r="AR62" t="n">
         <v>-64033</v>
       </c>
-      <c r="AR62" t="n">
+      <c r="AS62" t="n">
         <v>-64583</v>
       </c>
-      <c r="AS62" t="n">
+      <c r="AT62" t="n">
         <v>-65130.992</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-104940</v>
       </c>
       <c r="AU62" t="n">
         <v>-104940</v>
@@ -18314,22 +18318,22 @@
         <v>-100102</v>
       </c>
       <c r="CK62" t="n">
+        <v>-102910</v>
+      </c>
+      <c r="CL62" t="n">
         <v>-103850.992</v>
       </c>
-      <c r="CL62" t="n">
+      <c r="CM62" t="n">
         <v>-85472</v>
       </c>
-      <c r="CM62" t="n">
+      <c r="CN62" t="n">
         <v>-93162</v>
       </c>
-      <c r="CN62" t="n">
+      <c r="CO62" t="n">
         <v>-74560</v>
       </c>
-      <c r="CO62" t="n">
+      <c r="CP62" t="n">
         <v>-93847.984</v>
-      </c>
-      <c r="CP62" t="n">
-        <v>-58123</v>
       </c>
       <c r="CQ62" t="n">
         <v>-58123</v>
@@ -18441,40 +18445,40 @@
         <v>-59086.992</v>
       </c>
       <c r="AI63" t="n">
+        <v>-53125</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>-45119</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>-45176</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AL63" t="n">
         <v>-50524</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AM63" t="n">
         <v>-49718</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AN63" t="n">
         <v>-45014</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>-43016</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>-42871.008</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>-42294</v>
       </c>
-      <c r="AQ63" t="n">
+      <c r="AR63" t="n">
         <v>-43710</v>
       </c>
-      <c r="AR63" t="n">
+      <c r="AS63" t="n">
         <v>-38814</v>
       </c>
-      <c r="AS63" t="n">
+      <c r="AT63" t="n">
         <v>-31666.992</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>0</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -18603,22 +18607,22 @@
         <v>-43063</v>
       </c>
       <c r="CK63" t="n">
+        <v>-45539</v>
+      </c>
+      <c r="CL63" t="n">
         <v>-27383</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CM63" t="n">
         <v>-44617</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CN63" t="n">
         <v>-47563</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CO63" t="n">
         <v>-49891</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CP63" t="n">
         <v>65046</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-75260</v>
       </c>
       <c r="CQ63" t="n">
         <v>-75260</v>
@@ -18674,9 +18678,7 @@
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="n">
         <v>0</v>
       </c>
@@ -18934,14 +18936,14 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
         <v>186</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AL65" t="n">
         <v>34289</v>
       </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
       <c r="AM65" t="n">
         <v>0</v>
       </c>
@@ -18949,10 +18951,10 @@
         <v>0</v>
       </c>
       <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
         <v>-69947</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>0</v>
       </c>
       <c r="AQ65" t="n">
         <v>0</v>
@@ -19220,40 +19222,40 @@
         <v>-26099</v>
       </c>
       <c r="AI66" t="n">
+        <v>-2629</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>-1028</v>
       </c>
-      <c r="AJ66" t="n">
-        <v>0</v>
-      </c>
       <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
         <v>3657</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>-4822</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AN66" t="n">
         <v>-1338</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AO66" t="n">
         <v>-16530</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AP66" t="n">
         <v>22690</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
         <v>-95</v>
       </c>
-      <c r="AQ66" t="n">
+      <c r="AR66" t="n">
         <v>-1495</v>
       </c>
-      <c r="AR66" t="n">
+      <c r="AS66" t="n">
         <v>-349</v>
       </c>
-      <c r="AS66" t="n">
+      <c r="AT66" t="n">
         <v>-6059</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -19382,22 +19384,22 @@
         <v>23057</v>
       </c>
       <c r="CK66" t="n">
+        <v>-7775</v>
+      </c>
+      <c r="CL66" t="n">
         <v>-15282</v>
       </c>
-      <c r="CL66" t="n">
-        <v>0</v>
-      </c>
       <c r="CM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN66" t="n">
         <v>4017</v>
       </c>
-      <c r="CN66" t="n">
+      <c r="CO66" t="n">
         <v>-3355</v>
       </c>
-      <c r="CO66" t="n">
+      <c r="CP66" t="n">
         <v>-662</v>
-      </c>
-      <c r="CP66" t="n">
-        <v>0</v>
       </c>
       <c r="CQ66" t="n">
         <v>0</v>
@@ -19671,22 +19673,22 @@
         <v>-11552</v>
       </c>
       <c r="CK67" t="n">
+        <v>-8993</v>
+      </c>
+      <c r="CL67" t="n">
         <v>34163</v>
       </c>
-      <c r="CL67" t="n">
-        <v>0</v>
-      </c>
       <c r="CM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN67" t="n">
         <v>3486</v>
       </c>
-      <c r="CN67" t="n">
+      <c r="CO67" t="n">
         <v>2732</v>
       </c>
-      <c r="CO67" t="n">
+      <c r="CP67" t="n">
         <v>-3410</v>
-      </c>
-      <c r="CP67" t="n">
-        <v>0</v>
       </c>
       <c r="CQ67" t="n">
         <v>0</v>
@@ -19798,40 +19800,40 @@
         <v>-20220</v>
       </c>
       <c r="AI68" t="n">
+        <v>-3524</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>7329</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AK68" t="n">
         <v>-70012</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AL68" t="n">
         <v>-112509.992</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>5888</v>
       </c>
-      <c r="AM68" t="n">
+      <c r="AN68" t="n">
         <v>19470</v>
       </c>
-      <c r="AN68" t="n">
+      <c r="AO68" t="n">
         <v>16814</v>
       </c>
-      <c r="AO68" t="n">
+      <c r="AP68" t="n">
         <v>22299</v>
       </c>
-      <c r="AP68" t="n">
+      <c r="AQ68" t="n">
         <v>-4060</v>
       </c>
-      <c r="AQ68" t="n">
+      <c r="AR68" t="n">
         <v>-4471</v>
       </c>
-      <c r="AR68" t="n">
+      <c r="AS68" t="n">
         <v>-10332</v>
       </c>
-      <c r="AS68" t="n">
+      <c r="AT68" t="n">
         <v>-17017</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-8646</v>
       </c>
       <c r="AU68" t="n">
         <v>-8646</v>
@@ -19960,22 +19962,22 @@
         <v>-77029</v>
       </c>
       <c r="CK68" t="n">
+        <v>-52879</v>
+      </c>
+      <c r="CL68" t="n">
         <v>-113409</v>
       </c>
-      <c r="CL68" t="n">
+      <c r="CM68" t="n">
         <v>-106837</v>
       </c>
-      <c r="CM68" t="n">
+      <c r="CN68" t="n">
         <v>-108072</v>
       </c>
-      <c r="CN68" t="n">
+      <c r="CO68" t="n">
         <v>-103511</v>
       </c>
-      <c r="CO68" t="n">
+      <c r="CP68" t="n">
         <v>-113458.016</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>-101968</v>
       </c>
       <c r="CQ68" t="n">
         <v>-101968</v>
@@ -20087,40 +20089,40 @@
         <v>617</v>
       </c>
       <c r="AI69" t="n">
+        <v>14058</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>17471</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AK69" t="n">
         <v>13646</v>
       </c>
-      <c r="AK69" t="n">
+      <c r="AL69" t="n">
         <v>22759</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>11796</v>
       </c>
-      <c r="AM69" t="n">
+      <c r="AN69" t="n">
         <v>9273</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>42968</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>-31870</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>20200</v>
       </c>
-      <c r="AQ69" t="n">
+      <c r="AR69" t="n">
         <v>18754</v>
       </c>
-      <c r="AR69" t="n">
+      <c r="AS69" t="n">
         <v>3667</v>
       </c>
-      <c r="AS69" t="n">
+      <c r="AT69" t="n">
         <v>17534</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>19207</v>
       </c>
       <c r="AU69" t="n">
         <v>19207</v>
@@ -20249,22 +20251,22 @@
         <v>9977</v>
       </c>
       <c r="CK69" t="n">
+        <v>37076</v>
+      </c>
+      <c r="CL69" t="n">
         <v>14532</v>
       </c>
-      <c r="CL69" t="n">
+      <c r="CM69" t="n">
         <v>15391</v>
       </c>
-      <c r="CM69" t="n">
+      <c r="CN69" t="n">
         <v>24807</v>
       </c>
-      <c r="CN69" t="n">
+      <c r="CO69" t="n">
         <v>30097</v>
       </c>
-      <c r="CO69" t="n">
+      <c r="CP69" t="n">
         <v>38343</v>
-      </c>
-      <c r="CP69" t="n">
-        <v>22351</v>
       </c>
       <c r="CQ69" t="n">
         <v>22351</v>
@@ -20376,40 +20378,40 @@
         <v>-20836.992</v>
       </c>
       <c r="AI70" t="n">
+        <v>-17582</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>-10142</v>
       </c>
-      <c r="AJ70" t="n">
+      <c r="AK70" t="n">
         <v>-83658</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AL70" t="n">
         <v>-135269.008</v>
       </c>
-      <c r="AL70" t="n">
+      <c r="AM70" t="n">
         <v>-5908</v>
       </c>
-      <c r="AM70" t="n">
+      <c r="AN70" t="n">
         <v>10197</v>
       </c>
-      <c r="AN70" t="n">
+      <c r="AO70" t="n">
         <v>-26154</v>
       </c>
-      <c r="AO70" t="n">
+      <c r="AP70" t="n">
         <v>54169</v>
       </c>
-      <c r="AP70" t="n">
+      <c r="AQ70" t="n">
         <v>-24260</v>
       </c>
-      <c r="AQ70" t="n">
+      <c r="AR70" t="n">
         <v>-23225</v>
       </c>
-      <c r="AR70" t="n">
+      <c r="AS70" t="n">
         <v>-13999</v>
       </c>
-      <c r="AS70" t="n">
+      <c r="AT70" t="n">
         <v>-34551</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-27853</v>
       </c>
       <c r="AU70" t="n">
         <v>-27853</v>
@@ -20538,22 +20540,22 @@
         <v>-87006</v>
       </c>
       <c r="CK70" t="n">
+        <v>-89955</v>
+      </c>
+      <c r="CL70" t="n">
         <v>-127941</v>
       </c>
-      <c r="CL70" t="n">
+      <c r="CM70" t="n">
         <v>-122228</v>
       </c>
-      <c r="CM70" t="n">
+      <c r="CN70" t="n">
         <v>-132879</v>
       </c>
-      <c r="CN70" t="n">
+      <c r="CO70" t="n">
         <v>-133608</v>
       </c>
-      <c r="CO70" t="n">
+      <c r="CP70" t="n">
         <v>-151800.96</v>
-      </c>
-      <c r="CP70" t="n">
-        <v>-124319</v>
       </c>
       <c r="CQ70" t="n">
         <v>-124319</v>
@@ -20665,17 +20667,17 @@
         <v>-47810</v>
       </c>
       <c r="AI71" t="n">
+        <v>-1211</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>-5379</v>
       </c>
-      <c r="AJ71" t="n">
+      <c r="AK71" t="n">
         <v>-2770</v>
       </c>
-      <c r="AK71" t="n">
+      <c r="AL71" t="n">
         <v>9360</v>
       </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
       <c r="AM71" t="n">
         <v>0</v>
       </c>
@@ -20694,7 +20696,9 @@
       <c r="AR71" t="n">
         <v>0</v>
       </c>
-      <c r="AS71" t="inlineStr"/>
+      <c r="AS71" t="n">
+        <v>0</v>
+      </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr"/>
       <c r="AV71" t="inlineStr"/>
@@ -20881,7 +20885,9 @@
       <c r="AR72" t="n">
         <v>0</v>
       </c>
-      <c r="AS72" t="inlineStr"/>
+      <c r="AS72" t="n">
+        <v>0</v>
+      </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr"/>
       <c r="AV72" t="inlineStr"/>
@@ -21039,17 +21045,17 @@
         <v>-43144</v>
       </c>
       <c r="AI73" t="n">
+        <v>-1211</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>-5379</v>
       </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
       <c r="AK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
         <v>6590</v>
       </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
       <c r="AM73" t="n">
         <v>0</v>
       </c>
@@ -21068,7 +21074,9 @@
       <c r="AR73" t="n">
         <v>0</v>
       </c>
-      <c r="AS73" t="inlineStr"/>
+      <c r="AS73" t="n">
+        <v>0</v>
+      </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
@@ -21226,40 +21234,40 @@
         <v>-179174.016</v>
       </c>
       <c r="AI74" t="n">
+        <v>11535</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>11725</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>-52584</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AL74" t="n">
         <v>-71390</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>6908</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AN74" t="n">
         <v>15754</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>3544</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>-10761</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>15595</v>
       </c>
-      <c r="AQ74" t="n">
+      <c r="AR74" t="n">
         <v>-237</v>
       </c>
-      <c r="AR74" t="n">
+      <c r="AS74" t="n">
         <v>5090</v>
       </c>
-      <c r="AS74" t="n">
+      <c r="AT74" t="n">
         <v>-5990</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>15842</v>
       </c>
       <c r="AU74" t="n">
         <v>15842</v>
@@ -21388,22 +21396,22 @@
         <v>-46965</v>
       </c>
       <c r="CK74" t="n">
+        <v>-24356</v>
+      </c>
+      <c r="CL74" t="n">
         <v>-58348</v>
       </c>
-      <c r="CL74" t="n">
+      <c r="CM74" t="n">
         <v>-95036</v>
       </c>
-      <c r="CM74" t="n">
+      <c r="CN74" t="n">
         <v>-178236</v>
       </c>
-      <c r="CN74" t="n">
+      <c r="CO74" t="n">
         <v>-201367.008</v>
       </c>
-      <c r="CO74" t="n">
+      <c r="CP74" t="n">
         <v>-180108</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>-267020</v>
       </c>
       <c r="CQ74" t="n">
         <v>-267020</v>
@@ -21515,40 +21523,40 @@
         <v>39348</v>
       </c>
       <c r="AI75" t="n">
+        <v>-4011</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>-14303</v>
       </c>
-      <c r="AJ75" t="n">
+      <c r="AK75" t="n">
         <v>18350</v>
       </c>
-      <c r="AK75" t="n">
+      <c r="AL75" t="n">
         <v>-3921</v>
       </c>
-      <c r="AL75" t="n">
+      <c r="AM75" t="n">
         <v>-522</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AN75" t="n">
         <v>-2874</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>9079</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>4845</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>-5137</v>
       </c>
-      <c r="AQ75" t="n">
+      <c r="AR75" t="n">
         <v>8597</v>
       </c>
-      <c r="AR75" t="n">
+      <c r="AS75" t="n">
         <v>-29309</v>
       </c>
-      <c r="AS75" t="n">
+      <c r="AT75" t="n">
         <v>-6609</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>-4581</v>
       </c>
       <c r="AU75" t="n">
         <v>-4581</v>
@@ -21677,22 +21685,22 @@
         <v>-5879</v>
       </c>
       <c r="CK75" t="n">
+        <v>-4392</v>
+      </c>
+      <c r="CL75" t="n">
         <v>622</v>
       </c>
-      <c r="CL75" t="n">
+      <c r="CM75" t="n">
         <v>-1169</v>
       </c>
-      <c r="CM75" t="n">
+      <c r="CN75" t="n">
         <v>114</v>
       </c>
-      <c r="CN75" t="n">
+      <c r="CO75" t="n">
         <v>-1642</v>
       </c>
-      <c r="CO75" t="n">
+      <c r="CP75" t="n">
         <v>-1495</v>
-      </c>
-      <c r="CP75" t="n">
-        <v>-871</v>
       </c>
       <c r="CQ75" t="n">
         <v>-871</v>
@@ -21834,10 +21842,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="n">
         <v>27545</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-731</v>
       </c>
       <c r="AU76" t="n">
         <v>-731</v>
@@ -21966,22 +21974,22 @@
         <v>4004</v>
       </c>
       <c r="CK76" t="n">
+        <v>24071</v>
+      </c>
+      <c r="CL76" t="n">
         <v>-9435</v>
       </c>
-      <c r="CL76" t="n">
+      <c r="CM76" t="n">
         <v>6697</v>
       </c>
-      <c r="CM76" t="n">
+      <c r="CN76" t="n">
         <v>3911</v>
       </c>
-      <c r="CN76" t="n">
+      <c r="CO76" t="n">
         <v>337</v>
       </c>
-      <c r="CO76" t="n">
+      <c r="CP76" t="n">
         <v>-21419</v>
-      </c>
-      <c r="CP76" t="n">
-        <v>8</v>
       </c>
       <c r="CQ76" t="n">
         <v>8</v>
@@ -22122,7 +22130,9 @@
       <c r="AR77" t="n">
         <v>0</v>
       </c>
-      <c r="AS77" t="inlineStr"/>
+      <c r="AS77" t="n">
+        <v>0</v>
+      </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AU77" t="inlineStr"/>
       <c r="AV77" t="inlineStr"/>
@@ -22309,7 +22319,9 @@
       <c r="AR78" t="n">
         <v>0</v>
       </c>
-      <c r="AS78" t="inlineStr"/>
+      <c r="AS78" t="n">
+        <v>0</v>
+      </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AU78" t="inlineStr"/>
       <c r="AV78" t="inlineStr"/>
@@ -22467,40 +22479,40 @@
         <v>106791</v>
       </c>
       <c r="AI79" t="n">
+        <v>-2029</v>
+      </c>
+      <c r="AJ79" t="n">
         <v>3445</v>
       </c>
-      <c r="AJ79" t="n">
+      <c r="AK79" t="n">
         <v>19856</v>
       </c>
-      <c r="AK79" t="n">
+      <c r="AL79" t="n">
         <v>96951</v>
       </c>
-      <c r="AL79" t="n">
+      <c r="AM79" t="n">
         <v>-2488</v>
       </c>
-      <c r="AM79" t="n">
+      <c r="AN79" t="n">
         <v>-9454</v>
       </c>
-      <c r="AN79" t="n">
+      <c r="AO79" t="n">
         <v>-7997</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AP79" t="n">
         <v>-2867</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AQ79" t="n">
         <v>-3589</v>
       </c>
-      <c r="AQ79" t="n">
+      <c r="AR79" t="n">
         <v>-4201</v>
       </c>
-      <c r="AR79" t="n">
+      <c r="AS79" t="n">
         <v>5811</v>
       </c>
-      <c r="AS79" t="n">
+      <c r="AT79" t="n">
         <v>-5397</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>-5859</v>
       </c>
       <c r="AU79" t="n">
         <v>-5859</v>
@@ -22629,22 +22641,22 @@
         <v>11083</v>
       </c>
       <c r="CK79" t="n">
+        <v>8220</v>
+      </c>
+      <c r="CL79" t="n">
         <v>28455</v>
       </c>
-      <c r="CL79" t="n">
+      <c r="CM79" t="n">
         <v>31802</v>
       </c>
-      <c r="CM79" t="n">
+      <c r="CN79" t="n">
         <v>80735</v>
       </c>
-      <c r="CN79" t="n">
+      <c r="CO79" t="n">
         <v>86377</v>
       </c>
-      <c r="CO79" t="n">
+      <c r="CP79" t="n">
         <v>94194.992</v>
-      </c>
-      <c r="CP79" t="n">
-        <v>112616</v>
       </c>
       <c r="CQ79" t="n">
         <v>112616</v>
@@ -22756,40 +22768,40 @@
         <v>-78789.992</v>
       </c>
       <c r="AI80" t="n">
+        <v>5495</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>867</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AK80" t="n">
         <v>-14378</v>
       </c>
-      <c r="AK80" t="n">
+      <c r="AL80" t="n">
         <v>21640</v>
       </c>
-      <c r="AL80" t="n">
+      <c r="AM80" t="n">
         <v>3898</v>
       </c>
-      <c r="AM80" t="n">
+      <c r="AN80" t="n">
         <v>3426</v>
       </c>
-      <c r="AN80" t="n">
+      <c r="AO80" t="n">
         <v>4626</v>
       </c>
-      <c r="AO80" t="n">
+      <c r="AP80" t="n">
         <v>-8783</v>
       </c>
-      <c r="AP80" t="n">
+      <c r="AQ80" t="n">
         <v>6869</v>
       </c>
-      <c r="AQ80" t="n">
+      <c r="AR80" t="n">
         <v>4159</v>
       </c>
-      <c r="AR80" t="n">
+      <c r="AS80" t="n">
         <v>-18408</v>
       </c>
-      <c r="AS80" t="n">
+      <c r="AT80" t="n">
         <v>9549</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>4671</v>
       </c>
       <c r="AU80" t="n">
         <v>4671</v>
@@ -22918,22 +22930,22 @@
         <v>-37757</v>
       </c>
       <c r="CK80" t="n">
+        <v>3543</v>
+      </c>
+      <c r="CL80" t="n">
         <v>-38706</v>
       </c>
-      <c r="CL80" t="n">
+      <c r="CM80" t="n">
         <v>-57706</v>
       </c>
-      <c r="CM80" t="n">
+      <c r="CN80" t="n">
         <v>-93476</v>
       </c>
-      <c r="CN80" t="n">
+      <c r="CO80" t="n">
         <v>-116295</v>
       </c>
-      <c r="CO80" t="n">
+      <c r="CP80" t="n">
         <v>-108827</v>
-      </c>
-      <c r="CP80" t="n">
-        <v>-155267.008</v>
       </c>
       <c r="CQ80" t="n">
         <v>-155267.008</v>
